--- a/data-folder/Données_groupe_02.xlsx
+++ b/data-folder/Données_groupe_02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données02" sheetId="2" r:id="rId1"/>
@@ -487,13 +487,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>32.519999999999996</v>
+        <v>28.560000000000002</v>
       </c>
       <c r="B15">
         <v>80</v>
       </c>
       <c r="C15">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>38.81</v>
+        <v>28.09</v>
       </c>
       <c r="B17">
         <v>91</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75.77000000000001</v>
+        <v>63.56</v>
       </c>
       <c r="B20">
         <v>81</v>
       </c>
       <c r="C20">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,46 +575,46 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>53.55</v>
+        <v>33.36</v>
       </c>
       <c r="B23">
         <v>95</v>
       </c>
       <c r="C23">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>89.11</v>
+        <v>50.839999999999996</v>
       </c>
       <c r="B24">
         <v>96</v>
       </c>
       <c r="C24">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>82.89</v>
+        <v>15.76</v>
       </c>
       <c r="B25">
         <v>124</v>
       </c>
       <c r="C25">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8.75</v>
+        <v>4.43</v>
       </c>
       <c r="B26">
         <v>123</v>
       </c>
       <c r="C26">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28.62</v>
+        <v>22.15</v>
       </c>
       <c r="B30">
         <v>86</v>
       </c>
       <c r="C30">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,13 +685,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28.1</v>
+        <v>19.23</v>
       </c>
       <c r="B33">
         <v>94</v>
       </c>
       <c r="C33">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,13 +718,13 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>53.59</v>
+        <v>26.88</v>
       </c>
       <c r="B36">
         <v>105</v>
       </c>
       <c r="C36">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>29.09</v>
+        <v>27.779999999999998</v>
       </c>
       <c r="B38">
         <v>74</v>
       </c>
       <c r="C38">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,13 +795,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3.7699999999999996</v>
+        <v>2.71</v>
       </c>
       <c r="B43">
         <v>122</v>
       </c>
       <c r="C43">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,24 +817,24 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>59.25</v>
+        <v>9.11</v>
       </c>
       <c r="B45">
         <v>127</v>
       </c>
       <c r="C45">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>79.010000000000005</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="B46">
         <v>125</v>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,24 +850,24 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16.73</v>
+        <v>15.540000000000001</v>
       </c>
       <c r="B48">
         <v>80</v>
       </c>
       <c r="C48">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7.71</v>
+        <v>4.5</v>
       </c>
       <c r="B49">
         <v>131</v>
       </c>
       <c r="C49">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,35 +894,35 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>78.149999999999991</v>
+        <v>14.71</v>
       </c>
       <c r="B52">
         <v>123</v>
       </c>
       <c r="C52">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53.65</v>
+        <v>52.11</v>
       </c>
       <c r="B53">
         <v>73</v>
       </c>
       <c r="C53">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>79.759999999999991</v>
+        <v>60.760000000000005</v>
       </c>
       <c r="B54">
         <v>85</v>
       </c>
       <c r="C54">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
